--- a/DATA/DMMT_Extract_Header.xlsx
+++ b/DATA/DMMT_Extract_Header.xlsx
@@ -708,10 +708,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,11 +871,11 @@
       <c r="AP1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
